--- a/Csv/AllType/Lson所有Class类型.xlsx
+++ b/Csv/AllType/Lson所有Class类型.xlsx
@@ -90,180 +90,180 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>bool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>布尔型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VarListBase</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list&lt;string&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VarListClass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Class列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elem列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VarListCardElem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Card.CardElement</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VarEnum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>枚举类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VarClass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VarDictBase</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础类型字典</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[int,long,string,enum]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>key:[int,long,string,enum]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VarDictEnum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>枚举类型字典</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict&lt;long,Card.CardElement&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Var1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Var2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类类型字典</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VarDictClass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//跨命名空间引用必须带命名空间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list&lt;Card.CardElement&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict&lt;int,string&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lson数据</t>
+  </si>
+  <si>
+    <t>LSingleClass</t>
+  </si>
+  <si>
+    <t>list&lt;LSingleClass&gt;</t>
+  </si>
+  <si>
+    <t>dict&lt;string,LSingleClass&gt;</t>
+  </si>
+  <si>
+    <t>LsonAllClass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSingleClass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>##class</t>
+  </si>
+  <si>
+    <t>变量名</t>
+  </si>
+  <si>
+    <t>变量类型</t>
+  </si>
+  <si>
+    <t>变量注释</t>
+  </si>
+  <si>
+    <t>检查规则</t>
+  </si>
+  <si>
+    <t>分组</t>
+  </si>
+  <si>
+    <t>Var3</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Var4</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>LInherit1</t>
+  </si>
+  <si>
+    <t>LInherit2</t>
+  </si>
+  <si>
     <t>长整型</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>布尔型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VarListBase</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>list&lt;string&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VarListClass</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Class列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Elem列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VarListCardElem</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Card.CardElement</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VarEnum</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>枚举类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VarClass</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>类类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VarDictBase</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础类型字典</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[int,long,string,enum]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>key:[int,long,string,enum]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VarDictEnum</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>枚举类型字典</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict&lt;long,Card.CardElement&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Var1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Var2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>类类型字典</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VarDictClass</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>//跨命名空间引用必须带命名空间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>list&lt;Card.CardElement&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict&lt;int,string&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lson数据</t>
-  </si>
-  <si>
-    <t>LSingleClass</t>
-  </si>
-  <si>
-    <t>list&lt;LSingleClass&gt;</t>
-  </si>
-  <si>
-    <t>dict&lt;string,LSingleClass&gt;</t>
-  </si>
-  <si>
-    <t>LsonAllClass</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LSingleClass</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>##class</t>
-  </si>
-  <si>
-    <t>变量名</t>
-  </si>
-  <si>
-    <t>变量类型</t>
-  </si>
-  <si>
-    <t>变量注释</t>
-  </si>
-  <si>
-    <t>检查规则</t>
-  </si>
-  <si>
-    <t>分组</t>
-  </si>
-  <si>
-    <t>Var3</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>Var4</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>LInherit1</t>
-  </si>
-  <si>
-    <t>LInherit2</t>
   </si>
 </sst>
 </file>
@@ -630,7 +630,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -647,11 +647,11 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1"/>
     </row>
@@ -683,7 +683,7 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -694,7 +694,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -724,104 +724,104 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
         <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
         <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
         <v>34</v>
       </c>
-      <c r="B13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
         <v>38</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -873,106 +873,106 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
         <v>60</v>
       </c>
-      <c r="B9" t="s">
-        <v>61</v>
-      </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
         <v>62</v>
       </c>
-      <c r="B16" t="s">
-        <v>63</v>
-      </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Csv/AllType/Lson所有Class类型.xlsx
+++ b/Csv/AllType/Lson所有Class类型.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="67">
   <si>
     <t>##class</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -263,6 +263,10 @@
   </si>
   <si>
     <t>长整型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>file:../../../Code/Assets:prefab</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -630,7 +634,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -638,7 +642,7 @@
     <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -717,6 +721,9 @@
       </c>
       <c r="C6" t="s">
         <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
